--- a/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/DetailTab.xlsx
+++ b/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/DetailTab.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\12.12\JD\console;Management-and-Monitoring;可用性监控控制台中文元素（3份文件）-译文-提交\jksChExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21840" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -143,9 +138,6 @@
     </r>
   </si>
   <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
     <t>DetailTab_i18nKey_9</t>
   </si>
   <si>
@@ -198,13 +190,17 @@
       </rPr>
       <t>URI</t>
     </r>
+  </si>
+  <si>
+    <t>Created at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +227,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,9 +259,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -594,15 +603,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="25.25" style="1"/>
+    <col min="1" max="2" width="25.25" style="1"/>
+    <col min="3" max="3" width="25.25" style="3"/>
+    <col min="4" max="4" width="25.25" style="2"/>
+    <col min="5" max="16384" width="25.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,7 +624,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -623,7 +635,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -634,7 +646,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -645,7 +657,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -654,9 +666,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -667,7 +679,7 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -678,7 +690,7 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -689,35 +701,38 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    </row>
+    <row r="13" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B10" numberStoredAsText="1"/>
   </ignoredErrors>
